--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintClassificationSummaryReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintClassificationSummaryReport.xlsx
@@ -8,10 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$3:$D$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$3:$F$5</definedName>
+    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$4:$F$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,11 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">{{Details}}</t>
+  </si>
   <si>
     <t xml:space="preserve">{{Title}}</t>
   </si>
   <si>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответственный</t>
+  </si>
+  <si>
     <t xml:space="preserve">Объект</t>
   </si>
   <si>
@@ -40,6 +50,9 @@
     <t xml:space="preserve">Количество</t>
   </si>
   <si>
+    <t xml:space="preserve">{{item.Guilties}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{item.ComplaintObject}}</t>
   </si>
   <si>
@@ -50,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">{{item.Amount}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt;sum&gt;&gt; </t>
   </si>
 </sst>
 </file>
@@ -59,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -93,6 +112,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -100,12 +127,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -149,28 +182,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,70 +244,301 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD5B4"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="49.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1002" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1008" min="1003" style="1" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1009" style="2" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="58.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="7" style="2" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="1005" style="2" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1011" style="3" width="14.76"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <autoFilter ref="A3:F5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -255,5 +547,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintClassificationSummaryReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintClassificationSummaryReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">{{Details}}</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.Number}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.Guilties}}</t>
@@ -182,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,10 +214,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,7 +230,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,7 +449,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,31 +506,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
